--- a/team_specific_matrix/Mobile_A.xlsx
+++ b/team_specific_matrix/Mobile_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4166666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C2">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.25</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08333333333333333</v>
+        <v>0.1851851851851852</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.5</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="R6">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="S6">
-        <v>0.3333333333333333</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1428571428571428</v>
+        <v>0.2</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1428571428571428</v>
+        <v>0.1</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S7">
-        <v>0.7142857142857143</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1176470588235294</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.05882352941176471</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05882352941176471</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2352941176470588</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1764705882352941</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="R8">
-        <v>0.05882352941176471</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="S8">
-        <v>0.2941176470588235</v>
+        <v>0.2592592592592592</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,13 +911,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="R9">
-        <v>0.1428571428571428</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="S9">
         <v>0.2857142857142857</v>
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08695652173913043</v>
+        <v>0.0851063829787234</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02173913043478261</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.02173913043478261</v>
+        <v>0.03191489361702127</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1521739130434783</v>
+        <v>0.09574468085106383</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02173913043478261</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2391304347826087</v>
+        <v>0.3297872340425532</v>
       </c>
       <c r="R10">
-        <v>0.06521739130434782</v>
+        <v>0.06382978723404255</v>
       </c>
       <c r="S10">
-        <v>0.391304347826087</v>
+        <v>0.3617021276595745</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="K11">
-        <v>0.2</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="L11">
-        <v>0.6</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.375</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L12">
-        <v>0.125</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1283,16 +1283,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.25</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="I15">
-        <v>0.125</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J15">
-        <v>0.25</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="K15">
-        <v>0.125</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.25</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="I16">
         <v>0.25</v>
@@ -1351,13 +1351,13 @@
         <v>0.25</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1401,28 +1401,28 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1111111111111111</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="I17">
-        <v>0.05555555555555555</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="J17">
         <v>0.5</v>
       </c>
       <c r="K17">
-        <v>0.05555555555555555</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.05555555555555555</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1111111111111111</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1111111111111111</v>
+        <v>0.1136363636363636</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.3333333333333333</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I18">
-        <v>0.3333333333333333</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="J18">
-        <v>0.1666666666666667</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1666666666666667</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02325581395348837</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2325581395348837</v>
+        <v>0.1931818181818182</v>
       </c>
       <c r="I19">
-        <v>0.04651162790697674</v>
+        <v>0.05681818181818182</v>
       </c>
       <c r="J19">
-        <v>0.3953488372093023</v>
+        <v>0.4204545454545455</v>
       </c>
       <c r="K19">
-        <v>0.1395348837209302</v>
+        <v>0.1477272727272727</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02325581395348837</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.09302325581395349</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.04651162790697674</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
   </sheetData>
